--- a/pfc-ice-cream-and-bakery.xlsx
+++ b/pfc-ice-cream-and-bakery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Techmaster\ice-cream-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6394B732-D0C2-4870-B505-29EC71FF3CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F8A60-3B85-4E39-8FA9-6C71FBC6DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="136">
   <si>
     <t>title</t>
   </si>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082F2529-B897-4DDD-ABEC-3E479B6BFE87}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,6 +955,9 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>130</v>
       </c>
@@ -1000,7 +1003,9 @@
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
         <v>130</v>
@@ -1047,7 +1052,9 @@
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
         <v>130</v>
@@ -1094,7 +1101,9 @@
       <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4" t="s">
         <v>130</v>
@@ -1141,7 +1150,9 @@
       <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
         <v>130</v>
@@ -1188,7 +1199,9 @@
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4" t="s">
         <v>130</v>
@@ -1235,6 +1248,9 @@
       <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="H20" s="4" t="s">
         <v>130</v>
       </c>
@@ -1264,7 +1280,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -1280,6 +1296,9 @@
       <c r="E23" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="F23" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>133</v>
       </c>
@@ -1293,9 +1312,12 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>134</v>
@@ -1337,7 +1359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -1353,6 +1375,9 @@
       <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="F28" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G28" s="6" t="s">
         <v>133</v>
       </c>
@@ -1366,9 +1391,12 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>134</v>
@@ -1426,6 +1454,9 @@
       <c r="E33" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="F33" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G33" s="6" t="s">
         <v>133</v>
       </c>
@@ -1439,9 +1470,12 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>134</v>
@@ -1499,6 +1533,9 @@
       <c r="E38" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="F38" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G38" s="6" t="s">
         <v>133</v>
       </c>
@@ -1512,9 +1549,12 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D39" s="2" t="s">
         <v>77</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>134</v>
@@ -1572,6 +1612,9 @@
       <c r="E43" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="F43" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G43" s="6" t="s">
         <v>133</v>
       </c>
@@ -1585,9 +1628,12 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>134</v>
@@ -1645,6 +1691,9 @@
       <c r="E48" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="F48" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G48" s="6" t="s">
         <v>133</v>
       </c>
@@ -1658,9 +1707,12 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D49" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>134</v>
@@ -1718,6 +1770,9 @@
       <c r="E53" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F53" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G53" s="6" t="s">
         <v>133</v>
       </c>
@@ -1731,9 +1786,12 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D54" s="2" t="s">
         <v>92</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>134</v>
@@ -1791,6 +1849,9 @@
       <c r="E58" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="F58" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G58" s="6" t="s">
         <v>133</v>
       </c>
@@ -1804,9 +1865,12 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D59" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>134</v>
@@ -1864,6 +1928,9 @@
       <c r="E63" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="F63" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G63" s="6" t="s">
         <v>133</v>
       </c>
@@ -1877,9 +1944,12 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D64" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>134</v>
@@ -1921,7 +1991,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2</v>
       </c>
@@ -1937,6 +2007,9 @@
       <c r="E68" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="F68" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G68" s="6" t="s">
         <v>133</v>
       </c>
@@ -1950,9 +2023,12 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D69" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>134</v>
@@ -2010,6 +2086,9 @@
       <c r="E73" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="F73" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G73" s="6" t="s">
         <v>133</v>
       </c>
@@ -2023,9 +2102,12 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="D74" s="2" t="s">
         <v>112</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>134</v>
